--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_5_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_5_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[2.15297224692345, 2.9388223028855753]</t>
+          <t>[2.1592385440545834, 2.9325560057544418]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.01533078096011753, 0.4210115792302602]</t>
+          <t>[0.01506316660556184, 0.4212791935848159]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.03562119620977833</v>
+        <v>0.03585313749044716</v>
       </c>
       <c r="V2" t="n">
-        <v>0.03562119620977833</v>
+        <v>0.03585313749044716</v>
       </c>
       <c r="W2" t="n">
         <v>15.57393393393438</v>
